--- a/biology/Botanique/Bois_panneauté/Bois_panneauté.xlsx
+++ b/biology/Botanique/Bois_panneauté/Bois_panneauté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_panneaut%C3%A9</t>
+          <t>Bois_panneauté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la norme afnor NF EN 12775, le bois panneauté, solid wood panel en anglais, est un panneau à base de bois constitué de pièces de bois collées ensemble sur leurs chants et s’ils sont multicouches, sur leurs faces[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la norme afnor NF EN 12775, le bois panneauté, solid wood panel en anglais, est un panneau à base de bois constitué de pièces de bois collées ensemble sur leurs chants et s’ils sont multicouches, sur leurs faces. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_panneaut%C3%A9</t>
+          <t>Bois_panneauté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Typologie et applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les bois panneautés peuvent être monocouches ou multicouches[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les bois panneautés peuvent être monocouches ou multicouches : 
 les bois panneautés monocouches sont utilisés dans des applications non structurales : plans de travail de cuisine et de salle de bain, portes, bardages, marches, contremarches ;
 les bois panneautés multicouches sont constitués d’un nombre impair de couches collées entre elles à fil croisé. Ils sont utilisés pour des applications structurales ou non : coffrage, panneaux de construction, murs, planchers, toitures.</t>
         </is>
